--- a/data/input/Scenario_Component_Building.xlsx
+++ b/data/input/Scenario_Component_Building.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Documents\code\3E\Flex\data\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BE0F66-C737-4EA5-8A11-82AD6070BBC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Building" sheetId="1" r:id="rId1"/>
@@ -60,8 +61,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -91,7 +92,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -107,21 +108,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L2" totalsRowShown="0">
-  <autoFilter ref="A1:L2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L2" totalsRowShown="0">
+  <autoFilter ref="A1:L2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="ID_Building"/>
-    <tableColumn id="2" name="Af"/>
-    <tableColumn id="3" name="Hop"/>
-    <tableColumn id="4" name="Htr_w"/>
-    <tableColumn id="5" name="Hve"/>
-    <tableColumn id="6" name="CM_factor"/>
-    <tableColumn id="7" name="Am_factor"/>
-    <tableColumn id="8" name="internal_gains"/>
-    <tableColumn id="9" name="effective_window_area_west_east"/>
-    <tableColumn id="10" name="effective_window_area_south"/>
-    <tableColumn id="11" name="effective_window_area_north"/>
-    <tableColumn id="12" name="grid_power_max"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID_Building"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Af"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hop"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Htr_w"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Hve"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CM_factor"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Am_factor"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="internal_gains"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="effective_window_area_west_east"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="effective_window_area_south"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="effective_window_area_north"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="grid_power_max"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -389,14 +390,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
@@ -408,7 +409,7 @@
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -481,7 +482,7 @@
         <v>2.2050000000000001</v>
       </c>
       <c r="L2">
-        <v>64000</v>
+        <v>21000</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/Scenario_Component_Building.xlsx
+++ b/data/input/Scenario_Component_Building.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mascherbauer\PycharmProjects\NewTrends\Prosumager\data\input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BE0F66-C737-4EA5-8A11-82AD6070BBC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30240" windowHeight="14680"/>
   </bookViews>
   <sheets>
     <sheet name="OperationScenario_Building" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>ID_Building</t>
   </si>
@@ -61,22 +55,366 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -84,45 +422,331 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:L2" totalsRowShown="0">
-  <autoFilter ref="A1:L2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L4" totalsRowShown="0">
+  <autoFilter ref="A1:L4"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID_Building"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Af"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hop"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Htr_w"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Hve"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="CM_factor"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Am_factor"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="internal_gains"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="effective_window_area_west_east"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="effective_window_area_south"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="effective_window_area_north"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="grid_power_max"/>
+    <tableColumn id="1" name="ID_Building"/>
+    <tableColumn id="2" name="Af"/>
+    <tableColumn id="3" name="Hop"/>
+    <tableColumn id="4" name="Htr_w"/>
+    <tableColumn id="5" name="Hve"/>
+    <tableColumn id="6" name="CM_factor"/>
+    <tableColumn id="7" name="Am_factor"/>
+    <tableColumn id="8" name="internal_gains"/>
+    <tableColumn id="9" name="effective_window_area_west_east"/>
+    <tableColumn id="10" name="effective_window_area_south"/>
+    <tableColumn id="11" name="effective_window_area_north"/>
+    <tableColumn id="12" name="grid_power_max"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -171,7 +795,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -206,7 +830,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -380,28 +1004,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.2890625" customWidth="1"/>
     <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.2890625" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="34.140625" customWidth="1"/>
     <col min="10" max="10" width="30.140625" customWidth="1"/>
@@ -452,41 +1071,118 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>163.28</v>
+        <v>185</v>
       </c>
       <c r="C2">
-        <v>159.101</v>
+        <v>108.431</v>
       </c>
       <c r="D2">
-        <v>71.254000000000005</v>
+        <v>67.656</v>
       </c>
       <c r="E2">
-        <v>46.189</v>
+        <v>58.034</v>
       </c>
       <c r="F2">
-        <v>213505.516</v>
+        <v>148226.875</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>2.667</v>
       </c>
       <c r="H2">
         <v>3.4</v>
       </c>
       <c r="I2">
-        <v>8.8190000000000008</v>
+        <v>8.789</v>
       </c>
       <c r="J2">
-        <v>4.7240000000000002</v>
+        <v>3.767</v>
       </c>
       <c r="K2">
-        <v>2.2050000000000001</v>
+        <v>1.395</v>
       </c>
       <c r="L2">
         <v>21000</v>
       </c>
     </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>185</v>
+      </c>
+      <c r="C3">
+        <v>214.912</v>
+      </c>
+      <c r="D3">
+        <v>90.761</v>
+      </c>
+      <c r="E3">
+        <v>52.371</v>
+      </c>
+      <c r="F3">
+        <v>213505.516</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>3.4</v>
+      </c>
+      <c r="I3">
+        <v>8.323</v>
+      </c>
+      <c r="J3">
+        <v>5.549</v>
+      </c>
+      <c r="K3">
+        <v>1.541</v>
+      </c>
+      <c r="L3">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>185</v>
+      </c>
+      <c r="C4">
+        <v>234.797</v>
+      </c>
+      <c r="D4">
+        <v>160.789</v>
+      </c>
+      <c r="E4">
+        <v>52.371</v>
+      </c>
+      <c r="F4">
+        <v>213505.516</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3.4</v>
+      </c>
+      <c r="I4">
+        <v>8.323</v>
+      </c>
+      <c r="J4">
+        <v>5.549</v>
+      </c>
+      <c r="K4">
+        <v>1.541</v>
+      </c>
+      <c r="L4">
+        <v>21000</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
